--- a/Task_3/processed/excels/Mar 2016-11-12.xlsx
+++ b/Task_3/processed/excels/Mar 2016-11-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC76CB8-C678-4497-BD3A-BC99215B5F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E802F-45B0-4C7F-897A-159537C9E8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,26 +435,26 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,18 +796,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="12" customWidth="1"/>
     <col min="2" max="2" width="8" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="27.1640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="34" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="22" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
@@ -1838,10 +1838,10 @@
       <c r="B52" s="7">
         <v>659.4</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="23">
         <v>1087.44</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="24">
         <v>8986.18</v>
       </c>
       <c r="E52" s="11" t="s">
@@ -1858,8 +1858,8 @@
       <c r="B53" s="7">
         <v>177.4</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="11" t="s">
         <v>76</v>
       </c>
@@ -1871,13 +1871,13 @@
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="18">
         <v>2600</v>
       </c>
       <c r="C54" s="7">
         <v>1921.13</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="19">
         <v>16921.150000000001</v>
       </c>
       <c r="E54" s="11" t="s">
@@ -1891,13 +1891,13 @@
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="18">
         <v>2000</v>
       </c>
       <c r="C55" s="7">
         <v>1433.71</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="19">
         <v>13330.54</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -1911,13 +1911,13 @@
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="18">
         <v>1000</v>
       </c>
       <c r="C56" s="9">
         <v>703.94</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="20">
         <v>6056</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -1931,13 +1931,13 @@
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="18">
         <v>1500</v>
       </c>
       <c r="C57" s="9">
         <v>500.02</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="20">
         <v>6407.81</v>
       </c>
       <c r="E57" s="11" t="s">
@@ -1951,13 +1951,13 @@
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="20">
+      <c r="B58" s="18">
         <v>1000</v>
       </c>
       <c r="C58" s="9">
         <v>538.27</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="20">
         <v>2905.9</v>
       </c>
       <c r="E58" s="11" t="s">
@@ -1971,13 +1971,13 @@
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="20">
+      <c r="B59" s="18">
         <v>1470</v>
       </c>
       <c r="C59" s="7">
         <v>1057.5899999999999</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="20">
         <v>8992.74</v>
       </c>
       <c r="E59" s="11" t="s">
@@ -1991,13 +1991,13 @@
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="20">
+      <c r="B60" s="18">
         <v>420</v>
       </c>
       <c r="C60" s="9">
         <v>318.3</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="20">
         <v>2823.94</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -2011,13 +2011,13 @@
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="20">
+      <c r="B61" s="18">
         <v>500</v>
       </c>
       <c r="C61" s="8">
         <v>31.62</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="20">
         <v>615.41999999999996</v>
       </c>
       <c r="E61" s="11" t="s">
@@ -2037,7 +2037,7 @@
       <c r="C62" s="9">
         <v>292.31</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="20">
         <v>2695.08</v>
       </c>
       <c r="E62" s="11" t="s">
@@ -2057,7 +2057,7 @@
       <c r="C63" s="9">
         <v>684.23</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="20">
         <v>6365.11</v>
       </c>
       <c r="E63" s="11" t="s">
@@ -2077,7 +2077,7 @@
       <c r="C64" s="9">
         <v>639.32000000000005</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="20">
         <v>1831.22</v>
       </c>
       <c r="E64" s="11" t="s">

--- a/Task_3/processed/excels/Mar 2016-11-12.xlsx
+++ b/Task_3/processed/excels/Mar 2016-11-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E802F-45B0-4C7F-897A-159537C9E8F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C27FF-C5BD-42A7-86DC-E4235B5D8D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="82">
   <si>
     <t>Mar-16</t>
   </si>
@@ -241,37 +241,40 @@
     <t>HYDRO</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Thermal - Coal Lignite</t>
-  </si>
-  <si>
-    <t>Thermal - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>Wind - Solar</t>
-  </si>
-  <si>
-    <t>IPP  - Lignite Thermal</t>
-  </si>
-  <si>
-    <t>IPP  - Gas Naptha Diesel</t>
-  </si>
-  <si>
-    <t>IPP  - Wind Solar Others</t>
-  </si>
-  <si>
-    <t>Thermal - Coal</t>
-  </si>
-  <si>
     <t>Central Sector</t>
   </si>
   <si>
-    <t>Thermal - Lignite</t>
-  </si>
-  <si>
     <t>Nuclear</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Coal Lignite</t>
+  </si>
+  <si>
+    <t>Naptha</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Co-generation</t>
+  </si>
+  <si>
+    <t>Biomass</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -376,44 +379,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -426,35 +428,65 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1"/>
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,1298 +826,1378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="34" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.33203125" style="12"/>
+    <col min="1" max="1" width="39" style="19" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="34" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>58.95</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>4.8</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>46.17</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>1.26</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>4.97</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="11">
         <v>150</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="11">
         <v>49.01</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>233.66</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="11">
         <v>36</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>16.97</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>95.13</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="11">
         <v>0.75</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>0.18</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>0.76</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
         <v>60</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>32.18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>192.04</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <v>175</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>76.41</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>511.43</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="11">
         <v>180</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>41.55</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>294.38</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="11">
         <v>100</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>5.36</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>91.45</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="11">
         <v>40</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>5.2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>32.4</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="11">
         <v>35</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>6.39</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>79.75</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="F12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="11">
         <v>400</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>58.02</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>358.83</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="11">
         <v>60</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>13.94</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>133.47999999999999</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="F14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>0.03</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <v>2.74</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="F15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="11">
         <v>50</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>4.79</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="11">
         <v>81.75</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="F16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="11">
         <v>200</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <v>0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="11">
         <v>246.39</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="F17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="11">
         <v>120</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="11">
         <v>3.58</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="11">
         <v>214.54</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="F18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="11">
         <v>8</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="11">
         <v>2.85</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="11">
         <v>29.18</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="F19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="11">
         <v>140</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="11">
         <v>18.93</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="11">
         <v>471.27</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="F20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="11">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="11">
         <v>0.45</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <v>17.329999999999998</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="11">
         <v>32</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="11">
         <v>7.17</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="11">
         <v>106.54</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="F22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="11">
         <v>20</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="11">
         <v>2.31</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>58.37</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="F23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="11">
         <v>30</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="11">
         <v>15.73</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <v>70.87</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="F24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="11">
         <v>95</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="11">
         <v>0.02</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="11">
         <v>225.04</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="F25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="11">
         <v>100</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="11">
         <v>36.200000000000003</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <v>236.23</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="F26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="11">
         <v>8</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="11">
         <v>0.08</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <v>6.62</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="F27" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="11">
         <v>7.5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="11">
         <v>3.3</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11">
         <v>9.7899999999999991</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="F28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="11">
         <v>30</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="11">
         <v>5.54</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="11">
         <v>24.01</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="F29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="11">
         <v>15.7</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="11">
         <v>0.12</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <v>7.53</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="F30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="11">
         <v>60</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="11">
         <v>0.2</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="11">
         <v>11.36</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="F31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="11">
         <v>450</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <v>35.9</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="11">
         <v>350.67</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="E32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="11">
         <v>1050</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="11">
         <v>547.78</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="11">
         <v>5816.15</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="E33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="11">
         <v>1440</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="11">
         <v>1006.51</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="11">
         <v>8439.59</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="E34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="11">
         <v>1830</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="11">
         <v>1044.3599999999999</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="11">
         <v>9089.98</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="E35" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="11">
         <v>120</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="11">
         <v>0.22</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="11">
         <v>8.66</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="E36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="11">
         <v>107.88</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="11">
         <v>39.22</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="11">
         <v>324.41000000000003</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="E37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="11">
         <v>95</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="11">
         <v>60.97</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="11">
         <v>604.01</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="E38" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="11">
         <v>92</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="11">
         <v>0</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="11">
         <v>0</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="E39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="11">
         <v>101</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="11">
         <v>39.6</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="11">
         <v>463.41</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="E40" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="11">
         <v>17.47</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="11">
         <v>0</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="11">
+        <v>600</v>
+      </c>
+      <c r="C42" s="11">
+        <v>318.56</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2702.95</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7">
-        <v>600</v>
-      </c>
-      <c r="C42" s="9">
-        <v>318.56</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2702.95</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15">
+        <v>250</v>
+      </c>
+      <c r="C43" s="11">
+        <v>136.46</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1170.8599999999999</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="11">
+        <v>196</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>105.66</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>35.49</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11">
+        <v>106</v>
+      </c>
+      <c r="C46" s="11">
+        <v>7.83</v>
+      </c>
+      <c r="D46" s="11">
+        <v>35.39</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="11">
+        <v>330.5</v>
+      </c>
+      <c r="C47" s="11">
+        <v>47.75</v>
+      </c>
+      <c r="D47" s="11">
+        <v>145.03</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="16">
-        <v>250</v>
-      </c>
-      <c r="C43" s="9">
-        <v>136.46</v>
-      </c>
-      <c r="D43" s="17">
-        <v>1170.8599999999999</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7">
-        <v>196</v>
-      </c>
-      <c r="C44" s="9">
-        <v>0</v>
-      </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="F47" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11">
+        <v>113.2</v>
+      </c>
+      <c r="C48" s="11">
+        <v>46.63</v>
+      </c>
+      <c r="D48" s="11">
+        <v>515.71</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7">
-        <v>105.66</v>
-      </c>
-      <c r="C45" s="9">
-        <v>0</v>
-      </c>
-      <c r="D45" s="9">
-        <v>35.49</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="F48" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11">
+        <v>52.8</v>
+      </c>
+      <c r="C49" s="11">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="D49" s="11">
+        <v>146.53</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7">
-        <v>106</v>
-      </c>
-      <c r="C46" s="9">
-        <v>7.83</v>
-      </c>
-      <c r="D46" s="9">
-        <v>35.39</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7">
-        <v>330.5</v>
-      </c>
-      <c r="C47" s="9">
-        <v>47.75</v>
-      </c>
-      <c r="D47" s="9">
-        <v>145.03</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7">
-        <v>113.2</v>
-      </c>
-      <c r="C48" s="9">
-        <v>46.63</v>
-      </c>
-      <c r="D48" s="9">
-        <v>515.71</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7">
-        <v>52.8</v>
-      </c>
-      <c r="C49" s="9">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="D49" s="9">
-        <v>146.53</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="F49" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="11">
         <v>7234.45</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="11">
         <v>182.6</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="11">
         <v>7061.24</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="F50" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="11">
         <v>119.06</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="11">
         <v>97.7</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="11">
         <v>285.05</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="E51" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="11">
         <v>659.4</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="16">
         <v>1087.44</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="17">
         <v>8986.18</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="E52" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="11">
         <v>177.4</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="18">
         <v>2600</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="11">
         <v>1921.13</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="11">
         <v>16921.150000000001</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="E54" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="18">
         <v>2000</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="11">
         <v>1433.71</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="11">
         <v>13330.54</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="E55" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="18">
         <v>1000</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="11">
         <v>703.94</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="11">
         <v>6056</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="E56" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="18">
         <v>1500</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="11">
         <v>500.02</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="11">
         <v>6407.81</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="E57" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="18">
         <v>1000</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="11">
         <v>538.27</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="11">
         <v>2905.9</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="E58" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="18">
         <v>1470</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="11">
         <v>1057.5899999999999</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="11">
         <v>8992.74</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="E59" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="18">
         <v>420</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="11">
         <v>318.3</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="11">
         <v>2823.94</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="E60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="18">
         <v>500</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="11">
         <v>31.62</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="11">
         <v>615.41999999999996</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="E61" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="11">
         <v>440</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="11">
         <v>292.31</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="11">
         <v>2695.08</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="E62" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="11">
         <v>880</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="11">
         <v>684.23</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="11">
         <v>6365.11</v>
       </c>
-      <c r="E63" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="E63" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="11">
         <v>1000</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="11">
         <v>639.32000000000005</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="11">
         <v>1831.22</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="E64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2093,5 +2205,6 @@
     <mergeCell ref="D52:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Task_3/processed/excels/Mar 2016-11-12.xlsx
+++ b/Task_3/processed/excels/Mar 2016-11-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_3\processed\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C27FF-C5BD-42A7-86DC-E4235B5D8D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CB3D11-007C-4922-9E53-8B669D922609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,35 +458,35 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,18 +828,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" style="19" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="34" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="39" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="34" style="18" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="18" customWidth="1"/>
     <col min="7" max="16384" width="9.33203125" style="3"/>
   </cols>
   <sheetData>
@@ -862,7 +862,7 @@
       <c r="F1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -883,7 +883,7 @@
       <c r="F2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -904,7 +904,7 @@
       <c r="F3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -925,7 +925,7 @@
       <c r="F4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -946,7 +946,7 @@
       <c r="F5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -967,7 +967,7 @@
       <c r="F6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -988,7 +988,7 @@
       <c r="F7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1009,7 +1009,7 @@
       <c r="F8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
@@ -1030,7 +1030,7 @@
       <c r="F9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
@@ -1051,7 +1051,7 @@
       <c r="F10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -1072,7 +1072,7 @@
       <c r="F11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
@@ -1093,7 +1093,7 @@
       <c r="F12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
@@ -1114,7 +1114,7 @@
       <c r="F13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
@@ -1135,7 +1135,7 @@
       <c r="F14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -1156,7 +1156,7 @@
       <c r="F15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
@@ -1177,7 +1177,7 @@
       <c r="F16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -1198,7 +1198,7 @@
       <c r="F17" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -1219,7 +1219,7 @@
       <c r="F18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -1240,7 +1240,7 @@
       <c r="F19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
@@ -1261,7 +1261,7 @@
       <c r="F20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
@@ -1282,7 +1282,7 @@
       <c r="F21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
@@ -1303,7 +1303,7 @@
       <c r="F22" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
@@ -1324,7 +1324,7 @@
       <c r="F23" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
@@ -1345,7 +1345,7 @@
       <c r="F24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1366,7 +1366,7 @@
       <c r="F25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="21"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
       <c r="F26" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="21"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
       <c r="F27" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="21"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
       <c r="F28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="21"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1454,7 +1454,7 @@
       <c r="F29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="21"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,7 +1476,7 @@
       <c r="F30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="23"/>
+      <c r="G30" s="21"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
       <c r="F31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="23"/>
+      <c r="G31" s="21"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1520,7 +1520,7 @@
       <c r="F32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="22"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,7 +1542,7 @@
       <c r="F33" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="22"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1564,7 +1564,7 @@
       <c r="F34" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="22"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,7 +1586,7 @@
       <c r="F35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
@@ -1607,7 +1607,7 @@
       <c r="F36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
@@ -1628,7 +1628,7 @@
       <c r="F37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
@@ -1649,7 +1649,7 @@
       <c r="F38" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="24"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
@@ -1670,7 +1670,7 @@
       <c r="F39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1691,7 +1691,7 @@
       <c r="F40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="24"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
@@ -1712,7 +1712,7 @@
       <c r="F41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="24"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
@@ -1733,7 +1733,7 @@
       <c r="F42" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
@@ -1754,7 +1754,7 @@
       <c r="F43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
@@ -1775,7 +1775,7 @@
       <c r="F44" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
@@ -1796,7 +1796,7 @@
       <c r="F45" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="24"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
@@ -1817,7 +1817,7 @@
       <c r="F46" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="24"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
@@ -1838,7 +1838,7 @@
       <c r="F47" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G47" s="24"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
@@ -1859,7 +1859,7 @@
       <c r="F48" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="24"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
@@ -1880,7 +1880,7 @@
       <c r="F49" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="24"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
@@ -1901,7 +1901,7 @@
       <c r="F50" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="24"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
@@ -1922,7 +1922,7 @@
       <c r="F51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="24"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
@@ -1931,10 +1931,10 @@
       <c r="B52" s="11">
         <v>659.4</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="24">
         <v>1087.44</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="25">
         <v>8986.18</v>
       </c>
       <c r="E52" s="12" t="s">
@@ -1943,7 +1943,7 @@
       <c r="F52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="24"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
@@ -1952,21 +1952,21 @@
       <c r="B53" s="11">
         <v>177.4</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="24"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="16">
         <v>2600</v>
       </c>
       <c r="C54" s="11">
@@ -1981,13 +1981,13 @@
       <c r="F54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="22"/>
+      <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="16">
         <v>2000</v>
       </c>
       <c r="C55" s="11">
@@ -2002,13 +2002,13 @@
       <c r="F55" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G55" s="22"/>
+      <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="16">
         <v>1000</v>
       </c>
       <c r="C56" s="11">
@@ -2023,13 +2023,13 @@
       <c r="F56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G56" s="22"/>
+      <c r="G56" s="20"/>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="16">
         <v>1500</v>
       </c>
       <c r="C57" s="11">
@@ -2044,13 +2044,13 @@
       <c r="F57" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="22"/>
+      <c r="G57" s="20"/>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="16">
         <v>1000</v>
       </c>
       <c r="C58" s="11">
@@ -2065,13 +2065,13 @@
       <c r="F58" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="22"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="16">
         <v>1470</v>
       </c>
       <c r="C59" s="11">
@@ -2086,13 +2086,13 @@
       <c r="F59" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="22"/>
+      <c r="G59" s="20"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="16">
         <v>420</v>
       </c>
       <c r="C60" s="11">
@@ -2107,13 +2107,13 @@
       <c r="F60" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="22"/>
+      <c r="G60" s="20"/>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="16">
         <v>500</v>
       </c>
       <c r="C61" s="11">
@@ -2128,7 +2128,7 @@
       <c r="F61" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="22"/>
+      <c r="G61" s="20"/>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
@@ -2149,7 +2149,7 @@
       <c r="F62" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G62" s="22"/>
+      <c r="G62" s="20"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
@@ -2170,7 +2170,7 @@
       <c r="F63" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G63" s="22"/>
+      <c r="G63" s="20"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
@@ -2191,13 +2191,13 @@
       <c r="F64" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G64" s="22"/>
+      <c r="G64" s="20"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
